--- a/variant_12/9.xlsx
+++ b/variant_12/9.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\larchenko\variant_12\Задание 9\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист3" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -132,7 +127,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -184,7 +179,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -378,7 +373,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -386,15 +381,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA97"/>
+  <dimension ref="A1:AC97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -467,8 +462,16 @@
       <c r="Y1" s="1">
         <v>0.95833333333333304</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB1">
+        <f>COUNTIF(AA2:AA92,"&lt;=20")</f>
+        <v>30</v>
+      </c>
+      <c r="AC1">
+        <f>SUM(AC2:AC92)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43191</v>
       </c>
@@ -545,11 +548,16 @@
         <v>16.5</v>
       </c>
       <c r="AA2" s="4">
-        <f>MAX(B2:Y2)</f>
-        <v>25.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+        <f>AVERAGE(B2:Y2)</f>
+        <v>18.499999999999996</v>
+      </c>
+      <c r="AB2" s="4"/>
+      <c r="AC2">
+        <f>IF(AA2&lt;=20,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43192</v>
       </c>
@@ -626,11 +634,16 @@
         <v>15.3</v>
       </c>
       <c r="AA3" s="4">
-        <f t="shared" ref="AA3:AA66" si="0">MAX(B3:Y3)</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AA3:AA66" si="0">AVERAGE(B3:Y3)</f>
+        <v>17.945833333333336</v>
+      </c>
+      <c r="AB3" s="4"/>
+      <c r="AC3">
+        <f t="shared" ref="AC3:AC66" si="1">IF(AA3&lt;=20,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43193</v>
       </c>
@@ -708,10 +721,15 @@
       </c>
       <c r="AA4" s="4">
         <f t="shared" si="0"/>
-        <v>25.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+        <v>18.104166666666664</v>
+      </c>
+      <c r="AB4" s="4"/>
+      <c r="AC4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43194</v>
       </c>
@@ -789,10 +807,15 @@
       </c>
       <c r="AA5" s="4">
         <f t="shared" si="0"/>
-        <v>24.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+        <v>17.987500000000001</v>
+      </c>
+      <c r="AB5" s="4"/>
+      <c r="AC5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43195</v>
       </c>
@@ -870,10 +893,15 @@
       </c>
       <c r="AA6" s="4">
         <f t="shared" si="0"/>
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+        <v>17.729166666666668</v>
+      </c>
+      <c r="AB6" s="4"/>
+      <c r="AC6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43196</v>
       </c>
@@ -951,10 +979,15 @@
       </c>
       <c r="AA7" s="4">
         <f t="shared" si="0"/>
-        <v>25.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+        <v>18.145833333333332</v>
+      </c>
+      <c r="AB7" s="4"/>
+      <c r="AC7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43197</v>
       </c>
@@ -1032,10 +1065,15 @@
       </c>
       <c r="AA8" s="4">
         <f t="shared" si="0"/>
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+        <v>17.962500000000002</v>
+      </c>
+      <c r="AB8" s="4"/>
+      <c r="AC8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43198</v>
       </c>
@@ -1113,10 +1151,15 @@
       </c>
       <c r="AA9" s="4">
         <f t="shared" si="0"/>
-        <v>25.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+        <v>18.033333333333331</v>
+      </c>
+      <c r="AB9" s="4"/>
+      <c r="AC9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43199</v>
       </c>
@@ -1194,10 +1237,14 @@
       </c>
       <c r="AA10" s="4">
         <f t="shared" si="0"/>
-        <v>25.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+        <v>18.370833333333334</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43200</v>
       </c>
@@ -1275,10 +1322,14 @@
       </c>
       <c r="AA11" s="4">
         <f t="shared" si="0"/>
-        <v>25.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+        <v>18.475000000000001</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43201</v>
       </c>
@@ -1356,10 +1407,14 @@
       </c>
       <c r="AA12" s="4">
         <f t="shared" si="0"/>
-        <v>25.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+        <v>17.945833333333333</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43202</v>
       </c>
@@ -1437,10 +1492,14 @@
       </c>
       <c r="AA13" s="4">
         <f t="shared" si="0"/>
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+        <v>18.304166666666664</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43203</v>
       </c>
@@ -1518,10 +1577,14 @@
       </c>
       <c r="AA14" s="4">
         <f t="shared" si="0"/>
-        <v>25.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+        <v>17.987500000000001</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43204</v>
       </c>
@@ -1599,10 +1662,14 @@
       </c>
       <c r="AA15" s="4">
         <f t="shared" si="0"/>
-        <v>24.9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+        <v>18.404166666666665</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43205</v>
       </c>
@@ -1680,10 +1747,14 @@
       </c>
       <c r="AA16" s="4">
         <f t="shared" si="0"/>
-        <v>24.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+        <v>18.204166666666669</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43206</v>
       </c>
@@ -1761,10 +1832,14 @@
       </c>
       <c r="AA17" s="4">
         <f t="shared" si="0"/>
-        <v>24.7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+        <v>18.416666666666668</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43207</v>
       </c>
@@ -1842,10 +1917,14 @@
       </c>
       <c r="AA18" s="4">
         <f t="shared" si="0"/>
-        <v>25.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+        <v>17.858333333333338</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43208</v>
       </c>
@@ -1923,10 +2002,14 @@
       </c>
       <c r="AA19" s="4">
         <f t="shared" si="0"/>
-        <v>25.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+        <v>17.720833333333331</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43209</v>
       </c>
@@ -2004,10 +2087,14 @@
       </c>
       <c r="AA20" s="4">
         <f t="shared" si="0"/>
-        <v>25.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+        <v>17.691666666666663</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43210</v>
       </c>
@@ -2085,10 +2172,14 @@
       </c>
       <c r="AA21" s="4">
         <f t="shared" si="0"/>
-        <v>25.6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+        <v>18.024999999999995</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43211</v>
       </c>
@@ -2166,10 +2257,14 @@
       </c>
       <c r="AA22" s="4">
         <f t="shared" si="0"/>
-        <v>25.3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+        <v>18.174999999999997</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43212</v>
       </c>
@@ -2247,10 +2342,14 @@
       </c>
       <c r="AA23" s="4">
         <f t="shared" si="0"/>
-        <v>25.7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+        <v>18.2</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43213</v>
       </c>
@@ -2328,10 +2427,14 @@
       </c>
       <c r="AA24" s="4">
         <f t="shared" si="0"/>
-        <v>25.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+        <v>18.05</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43214</v>
       </c>
@@ -2409,10 +2512,14 @@
       </c>
       <c r="AA25" s="4">
         <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+        <v>18.087500000000002</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43215</v>
       </c>
@@ -2490,10 +2597,14 @@
       </c>
       <c r="AA26" s="4">
         <f t="shared" si="0"/>
-        <v>25.6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+        <v>17.975000000000005</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43216</v>
       </c>
@@ -2571,10 +2682,14 @@
       </c>
       <c r="AA27" s="4">
         <f t="shared" si="0"/>
-        <v>24.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+        <v>17.962500000000002</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43217</v>
       </c>
@@ -2652,10 +2767,14 @@
       </c>
       <c r="AA28" s="4">
         <f t="shared" si="0"/>
-        <v>25.6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+        <v>18.012499999999996</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43218</v>
       </c>
@@ -2733,10 +2852,14 @@
       </c>
       <c r="AA29" s="4">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+        <v>17.683333333333334</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43219</v>
       </c>
@@ -2814,10 +2937,14 @@
       </c>
       <c r="AA30" s="4">
         <f t="shared" si="0"/>
-        <v>25.8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+        <v>18.312500000000004</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43220</v>
       </c>
@@ -2895,10 +3022,14 @@
       </c>
       <c r="AA31" s="4">
         <f t="shared" si="0"/>
-        <v>25.7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+        <v>18.033333333333335</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43221</v>
       </c>
@@ -2976,10 +3107,14 @@
       </c>
       <c r="AA32" s="4">
         <f t="shared" si="0"/>
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+        <v>22.729166666666668</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43222</v>
       </c>
@@ -3057,10 +3192,14 @@
       </c>
       <c r="AA33" s="4">
         <f t="shared" si="0"/>
-        <v>29.8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+        <v>23.245833333333337</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43223</v>
       </c>
@@ -3138,10 +3277,14 @@
       </c>
       <c r="AA34" s="4">
         <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+        <v>23.537499999999998</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43224</v>
       </c>
@@ -3219,10 +3362,14 @@
       </c>
       <c r="AA35" s="4">
         <f t="shared" si="0"/>
-        <v>30.4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+        <v>23.3125</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43225</v>
       </c>
@@ -3300,10 +3447,14 @@
       </c>
       <c r="AA36" s="4">
         <f t="shared" si="0"/>
-        <v>30.9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+        <v>22.841666666666665</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43226</v>
       </c>
@@ -3381,10 +3532,14 @@
       </c>
       <c r="AA37" s="4">
         <f t="shared" si="0"/>
-        <v>30.9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+        <v>23.191666666666666</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43227</v>
       </c>
@@ -3462,10 +3617,14 @@
       </c>
       <c r="AA38" s="4">
         <f t="shared" si="0"/>
-        <v>30.1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+        <v>23.075000000000003</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>43228</v>
       </c>
@@ -3543,10 +3702,14 @@
       </c>
       <c r="AA39" s="4">
         <f t="shared" si="0"/>
-        <v>30.3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+        <v>22.979166666666661</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43229</v>
       </c>
@@ -3624,10 +3787,14 @@
       </c>
       <c r="AA40" s="4">
         <f t="shared" si="0"/>
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+        <v>23.120833333333334</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>43230</v>
       </c>
@@ -3705,10 +3872,14 @@
       </c>
       <c r="AA41" s="4">
         <f t="shared" si="0"/>
-        <v>30.8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+        <v>22.679166666666664</v>
+      </c>
+      <c r="AC41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>43231</v>
       </c>
@@ -3786,10 +3957,14 @@
       </c>
       <c r="AA42" s="4">
         <f t="shared" si="0"/>
-        <v>30.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+        <v>23.054166666666671</v>
+      </c>
+      <c r="AC42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>43232</v>
       </c>
@@ -3867,10 +4042,14 @@
       </c>
       <c r="AA43" s="4">
         <f t="shared" si="0"/>
-        <v>29.8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+        <v>23.308333333333337</v>
+      </c>
+      <c r="AC43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43233</v>
       </c>
@@ -3948,10 +4127,14 @@
       </c>
       <c r="AA44" s="4">
         <f t="shared" si="0"/>
-        <v>30.2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+        <v>22.924999999999997</v>
+      </c>
+      <c r="AC44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43234</v>
       </c>
@@ -4029,10 +4212,14 @@
       </c>
       <c r="AA45" s="4">
         <f t="shared" si="0"/>
-        <v>30.9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+        <v>22.916666666666661</v>
+      </c>
+      <c r="AC45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43235</v>
       </c>
@@ -4110,10 +4297,14 @@
       </c>
       <c r="AA46" s="4">
         <f t="shared" si="0"/>
-        <v>30.3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+        <v>23.325000000000003</v>
+      </c>
+      <c r="AC46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43236</v>
       </c>
@@ -4191,10 +4382,14 @@
       </c>
       <c r="AA47" s="4">
         <f t="shared" si="0"/>
-        <v>30.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+        <v>23.408333333333335</v>
+      </c>
+      <c r="AC47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>43237</v>
       </c>
@@ -4272,10 +4467,14 @@
       </c>
       <c r="AA48" s="4">
         <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+        <v>23.175000000000001</v>
+      </c>
+      <c r="AC48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>43238</v>
       </c>
@@ -4353,10 +4552,14 @@
       </c>
       <c r="AA49" s="4">
         <f t="shared" si="0"/>
-        <v>29.9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+        <v>22.708333333333332</v>
+      </c>
+      <c r="AC49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>43239</v>
       </c>
@@ -4434,10 +4637,14 @@
       </c>
       <c r="AA50" s="4">
         <f t="shared" si="0"/>
-        <v>30.8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+        <v>22.808333333333334</v>
+      </c>
+      <c r="AC50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>43240</v>
       </c>
@@ -4515,10 +4722,14 @@
       </c>
       <c r="AA51" s="4">
         <f t="shared" si="0"/>
-        <v>30.8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+        <v>23.029166666666665</v>
+      </c>
+      <c r="AC51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>43241</v>
       </c>
@@ -4596,10 +4807,14 @@
       </c>
       <c r="AA52" s="4">
         <f t="shared" si="0"/>
-        <v>29.7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+        <v>23.137499999999999</v>
+      </c>
+      <c r="AC52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>43242</v>
       </c>
@@ -4677,10 +4892,14 @@
       </c>
       <c r="AA53" s="4">
         <f t="shared" si="0"/>
-        <v>29.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+        <v>23.125</v>
+      </c>
+      <c r="AC53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>43243</v>
       </c>
@@ -4758,10 +4977,14 @@
       </c>
       <c r="AA54" s="4">
         <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+        <v>23.429166666666664</v>
+      </c>
+      <c r="AC54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>43244</v>
       </c>
@@ -4839,10 +5062,14 @@
       </c>
       <c r="AA55" s="4">
         <f t="shared" si="0"/>
-        <v>30.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+        <v>22.733333333333331</v>
+      </c>
+      <c r="AC55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>43245</v>
       </c>
@@ -4920,10 +5147,14 @@
       </c>
       <c r="AA56" s="4">
         <f t="shared" si="0"/>
-        <v>29.9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+        <v>22.983333333333331</v>
+      </c>
+      <c r="AC56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>43246</v>
       </c>
@@ -5001,10 +5232,14 @@
       </c>
       <c r="AA57" s="4">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+        <v>23.316666666666674</v>
+      </c>
+      <c r="AC57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>43247</v>
       </c>
@@ -5082,10 +5317,14 @@
       </c>
       <c r="AA58" s="4">
         <f t="shared" si="0"/>
-        <v>29.6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+        <v>22.962500000000002</v>
+      </c>
+      <c r="AC58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>43248</v>
       </c>
@@ -5163,10 +5402,14 @@
       </c>
       <c r="AA59" s="4">
         <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+        <v>23.137500000000003</v>
+      </c>
+      <c r="AC59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>43249</v>
       </c>
@@ -5244,10 +5487,14 @@
       </c>
       <c r="AA60" s="4">
         <f t="shared" si="0"/>
-        <v>29.9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+        <v>23.029166666666665</v>
+      </c>
+      <c r="AC60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>43250</v>
       </c>
@@ -5325,10 +5572,14 @@
       </c>
       <c r="AA61" s="4">
         <f t="shared" si="0"/>
-        <v>30.8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+        <v>23.262499999999992</v>
+      </c>
+      <c r="AC61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>43251</v>
       </c>
@@ -5406,10 +5657,14 @@
       </c>
       <c r="AA62" s="4">
         <f t="shared" si="0"/>
-        <v>29.3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+        <v>23.0625</v>
+      </c>
+      <c r="AC62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>43252</v>
       </c>
@@ -5487,10 +5742,14 @@
       </c>
       <c r="AA63" s="4">
         <f t="shared" si="0"/>
-        <v>37.299999999999997</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+        <v>30.241666666666664</v>
+      </c>
+      <c r="AC63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>43253</v>
       </c>
@@ -5568,10 +5827,14 @@
       </c>
       <c r="AA64" s="4">
         <f t="shared" si="0"/>
-        <v>37.1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+        <v>30.329166666666666</v>
+      </c>
+      <c r="AC64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>43254</v>
       </c>
@@ -5649,10 +5912,14 @@
       </c>
       <c r="AA65" s="4">
         <f t="shared" si="0"/>
-        <v>37.9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+        <v>29.866666666666671</v>
+      </c>
+      <c r="AC65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>43255</v>
       </c>
@@ -5730,10 +5997,14 @@
       </c>
       <c r="AA66" s="4">
         <f t="shared" si="0"/>
-        <v>37.9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+        <v>30.05</v>
+      </c>
+      <c r="AC66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>43256</v>
       </c>
@@ -5810,11 +6081,15 @@
         <v>28.3</v>
       </c>
       <c r="AA67" s="4">
-        <f t="shared" ref="AA67:AA92" si="1">MAX(B67:Y67)</f>
-        <v>37.4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AA67:AA92" si="2">AVERAGE(B67:Y67)</f>
+        <v>30.145833333333325</v>
+      </c>
+      <c r="AC67">
+        <f t="shared" ref="AC67:AC92" si="3">IF(AA67&lt;=20,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>43257</v>
       </c>
@@ -5891,11 +6166,15 @@
         <v>25.7</v>
       </c>
       <c r="AA68" s="4">
-        <f t="shared" si="1"/>
-        <v>37.4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>29.987500000000001</v>
+      </c>
+      <c r="AC68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>43258</v>
       </c>
@@ -5972,11 +6251,15 @@
         <v>27.9</v>
       </c>
       <c r="AA69" s="4">
-        <f t="shared" si="1"/>
-        <v>37.700000000000003</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>30.016666666666666</v>
+      </c>
+      <c r="AC69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>43259</v>
       </c>
@@ -6053,11 +6336,15 @@
         <v>28.4</v>
       </c>
       <c r="AA70" s="4">
-        <f t="shared" si="1"/>
-        <v>35.700000000000003</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>29.683333333333326</v>
+      </c>
+      <c r="AC70">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>43260</v>
       </c>
@@ -6134,11 +6421,15 @@
         <v>27.7</v>
       </c>
       <c r="AA71" s="4">
-        <f t="shared" si="1"/>
-        <v>36.4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>29.929166666666671</v>
+      </c>
+      <c r="AC71">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>43261</v>
       </c>
@@ -6215,11 +6506,15 @@
         <v>28.4</v>
       </c>
       <c r="AA72" s="4">
-        <f t="shared" si="1"/>
-        <v>37.700000000000003</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>30.220833333333331</v>
+      </c>
+      <c r="AC72">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>43262</v>
       </c>
@@ -6296,11 +6591,15 @@
         <v>26.6</v>
       </c>
       <c r="AA73" s="4">
-        <f t="shared" si="1"/>
-        <v>37.799999999999997</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>30.120833333333334</v>
+      </c>
+      <c r="AC73">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>43263</v>
       </c>
@@ -6377,11 +6676,15 @@
         <v>28.8</v>
       </c>
       <c r="AA74" s="4">
-        <f t="shared" si="1"/>
-        <v>36.700000000000003</v>
-      </c>
-    </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>30.337499999999995</v>
+      </c>
+      <c r="AC74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>43264</v>
       </c>
@@ -6458,11 +6761,15 @@
         <v>27.5</v>
       </c>
       <c r="AA75" s="4">
-        <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
-      </c>
-    </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>29.591666666666669</v>
+      </c>
+      <c r="AC75">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>43265</v>
       </c>
@@ -6539,11 +6846,15 @@
         <v>28.7</v>
       </c>
       <c r="AA76" s="4">
-        <f t="shared" si="1"/>
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>30.187500000000004</v>
+      </c>
+      <c r="AC76">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>43266</v>
       </c>
@@ -6620,11 +6931,15 @@
         <v>25.3</v>
       </c>
       <c r="AA77" s="4">
-        <f t="shared" si="1"/>
-        <v>37.700000000000003</v>
-      </c>
-    </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>30.216666666666665</v>
+      </c>
+      <c r="AC77">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>43267</v>
       </c>
@@ -6701,11 +7016,15 @@
         <v>28.5</v>
       </c>
       <c r="AA78" s="4">
-        <f t="shared" si="1"/>
-        <v>37.299999999999997</v>
-      </c>
-    </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>30.237499999999997</v>
+      </c>
+      <c r="AC78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>43268</v>
       </c>
@@ -6782,11 +7101,15 @@
         <v>28.5</v>
       </c>
       <c r="AA79" s="4">
-        <f t="shared" si="1"/>
-        <v>36.5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>30.029166666666669</v>
+      </c>
+      <c r="AC79">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>43269</v>
       </c>
@@ -6863,11 +7186,15 @@
         <v>26.2</v>
       </c>
       <c r="AA80" s="4">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>30.137500000000006</v>
+      </c>
+      <c r="AC80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>43270</v>
       </c>
@@ -6944,11 +7271,15 @@
         <v>27.6</v>
       </c>
       <c r="AA81" s="4">
-        <f t="shared" si="1"/>
-        <v>36.700000000000003</v>
-      </c>
-    </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>30.208333333333332</v>
+      </c>
+      <c r="AC81">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>43271</v>
       </c>
@@ -7025,11 +7356,15 @@
         <v>27.2</v>
       </c>
       <c r="AA82" s="4">
-        <f t="shared" si="1"/>
-        <v>37.6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>29.908333333333335</v>
+      </c>
+      <c r="AC82">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>43272</v>
       </c>
@@ -7106,11 +7441,15 @@
         <v>25.1</v>
       </c>
       <c r="AA83" s="4">
-        <f t="shared" si="1"/>
-        <v>36.799999999999997</v>
-      </c>
-    </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>29.554166666666664</v>
+      </c>
+      <c r="AC83">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>43273</v>
       </c>
@@ -7187,11 +7526,15 @@
         <v>26.1</v>
       </c>
       <c r="AA84" s="4">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>29.887500000000003</v>
+      </c>
+      <c r="AC84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>43274</v>
       </c>
@@ -7268,11 +7611,15 @@
         <v>25.9</v>
       </c>
       <c r="AA85" s="4">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>29.862499999999994</v>
+      </c>
+      <c r="AC85">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>43275</v>
       </c>
@@ -7349,11 +7696,15 @@
         <v>25.1</v>
       </c>
       <c r="AA86" s="4">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>29.858333333333331</v>
+      </c>
+      <c r="AC86">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>43276</v>
       </c>
@@ -7430,11 +7781,15 @@
         <v>28.3</v>
       </c>
       <c r="AA87" s="4">
-        <f t="shared" si="1"/>
-        <v>37.799999999999997</v>
-      </c>
-    </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>30.266666666666666</v>
+      </c>
+      <c r="AC87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>43277</v>
       </c>
@@ -7511,11 +7866,15 @@
         <v>28.9</v>
       </c>
       <c r="AA88" s="4">
-        <f t="shared" si="1"/>
-        <v>37.200000000000003</v>
-      </c>
-    </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>30.087500000000002</v>
+      </c>
+      <c r="AC88">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>43278</v>
       </c>
@@ -7592,11 +7951,15 @@
         <v>26.4</v>
       </c>
       <c r="AA89" s="4">
-        <f t="shared" si="1"/>
-        <v>37.799999999999997</v>
-      </c>
-    </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>29.787499999999998</v>
+      </c>
+      <c r="AC89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>43279</v>
       </c>
@@ -7673,11 +8036,15 @@
         <v>27.8</v>
       </c>
       <c r="AA90" s="4">
-        <f t="shared" si="1"/>
-        <v>36.200000000000003</v>
-      </c>
-    </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>29.704166666666662</v>
+      </c>
+      <c r="AC90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>43280</v>
       </c>
@@ -7754,11 +8121,15 @@
         <v>27.7</v>
       </c>
       <c r="AA91" s="4">
-        <f t="shared" si="1"/>
-        <v>37.6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>30.233333333333334</v>
+      </c>
+      <c r="AC91">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>43281</v>
       </c>
@@ -7835,14 +8206,18 @@
         <v>25.2</v>
       </c>
       <c r="AA92" s="4">
-        <f t="shared" si="1"/>
-        <v>37.4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>30.083333333333329</v>
+      </c>
+      <c r="AC92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C95" s="3"/>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C96" s="3"/>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.25">
